--- a/Data/Chapter1/realEstate_trans.xlsx
+++ b/Data/Chapter1/realEstate_trans.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sacramento_realestate_trans.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sacramento" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
